--- a/Automatic_Exfoliation/Bill_Of_Materials.xlsx
+++ b/Automatic_Exfoliation/Bill_Of_Materials.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caoyuan9642\Documents\GitHub\automatic_exfoliation\Automatic_Exfoliation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hawk\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9048"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$5</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="105">
   <si>
     <t>Part name</t>
   </si>
@@ -179,9 +179,6 @@
     <t>Oshpark</t>
   </si>
   <si>
-    <t>There are two spare boards</t>
-  </si>
-  <si>
     <t>Plenty in meas lab</t>
   </si>
   <si>
@@ -200,9 +197,6 @@
     <t>Color flat ribbon cable 26AWG, 10'</t>
   </si>
   <si>
-    <t>20/3pcs</t>
-  </si>
-  <si>
     <t>Heat shrink tube</t>
   </si>
   <si>
@@ -216,13 +210,148 @@
   </si>
   <si>
     <t>1145-1099-ND</t>
+  </si>
+  <si>
+    <t>ST-M505</t>
+  </si>
+  <si>
+    <t>Sainsmart CNC stepper motor driver</t>
+  </si>
+  <si>
+    <t>one spare in the lab</t>
+  </si>
+  <si>
+    <t>12-19123B </t>
+  </si>
+  <si>
+    <t>Par-Metal</t>
+  </si>
+  <si>
+    <t>linear potentiometer</t>
+  </si>
+  <si>
+    <t>red OFF-MOM pushbutton</t>
+  </si>
+  <si>
+    <t>SW PIANO DIP SPST 5 POS UNSEALD </t>
+  </si>
+  <si>
+    <t>5-pin piano DIP switches</t>
+  </si>
+  <si>
+    <t>more heavy-duty than necessary</t>
+  </si>
+  <si>
+    <t>987-1404-ND</t>
+  </si>
+  <si>
+    <t>4-pin ON-OFF toggle switch</t>
+  </si>
+  <si>
+    <t>360-2091-ND</t>
+  </si>
+  <si>
+    <t>1091-1041-ND</t>
+  </si>
+  <si>
+    <t>cool red/green LED button</t>
+  </si>
+  <si>
+    <t>708-1451-ND </t>
+  </si>
+  <si>
+    <t>Mechanical components</t>
+  </si>
+  <si>
+    <t>T-slotted framing, 3-inch</t>
+  </si>
+  <si>
+    <t>47065T109</t>
+  </si>
+  <si>
+    <t>McMaster</t>
+  </si>
+  <si>
+    <t>Linear bearings</t>
+  </si>
+  <si>
+    <t>60585K76</t>
+  </si>
+  <si>
+    <t>Hand break for the bearing</t>
+  </si>
+  <si>
+    <t>60585K32</t>
+  </si>
+  <si>
+    <t>90 deg Aluminum L-extrusion</t>
+  </si>
+  <si>
+    <t>8982K61</t>
+  </si>
+  <si>
+    <t>to place sample on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/2" aluminum plate </t>
+  </si>
+  <si>
+    <t>lab scrap material</t>
+  </si>
+  <si>
+    <t>NEMA 17 captive linear stepper, 1.5 micron steps, 2" stroke</t>
+  </si>
+  <si>
+    <t>43K4U-2.33-920</t>
+  </si>
+  <si>
+    <t>Haydon-Kerk</t>
+  </si>
+  <si>
+    <t>1 spare available</t>
+  </si>
+  <si>
+    <t>There are two spare boards (minimum order of 3)</t>
+  </si>
+  <si>
+    <t>2 feet minimum order</t>
+  </si>
+  <si>
+    <t>1 foot minimum order</t>
+  </si>
+  <si>
+    <t>in-line total</t>
+  </si>
+  <si>
+    <t>TOTAL SUM</t>
+  </si>
+  <si>
+    <t>11.5x16" aluminum rack-mountable box</t>
+  </si>
+  <si>
+    <t>for replacing the DIP switch in the Stepper motor driver (line item above)</t>
+  </si>
+  <si>
+    <t>[advanced tape clip TBD]</t>
+  </si>
+  <si>
+    <t>acrylic display case</t>
+  </si>
+  <si>
+    <t>STAD-11-15-5</t>
+  </si>
+  <si>
+    <t>casesforcollectibles.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +366,39 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -267,11 +429,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -284,8 +447,23 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -565,23 +743,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5546875" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="42.21875" customWidth="1"/>
-    <col min="4" max="4" width="42.21875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.109375" customWidth="1"/>
-    <col min="6" max="6" width="87.21875" customWidth="1"/>
+    <col min="1" max="1" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="42.28515625" customWidth="1"/>
+    <col min="4" max="5" width="12.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="7" max="7" width="87.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -592,16 +770,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -611,14 +792,18 @@
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="12">
         <v>3.41</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E2" s="12">
+        <f>D2*B2</f>
+        <v>3.41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -628,14 +813,18 @@
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="12">
         <v>0.21</v>
       </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E3" s="12">
+        <f t="shared" ref="E3:E38" si="0">D3*B3</f>
+        <v>0.21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -645,14 +834,18 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="12">
         <v>1.68</v>
       </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E4" s="12">
+        <f t="shared" si="0"/>
+        <v>1.68</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -662,14 +855,18 @@
       <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="12">
         <v>0.09</v>
       </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E5" s="12">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -679,17 +876,21 @@
       <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="12">
         <v>0.64</v>
       </c>
-      <c r="E6" t="s">
-        <v>7</v>
+      <c r="E6" s="12">
+        <f t="shared" si="0"/>
+        <v>0.64</v>
       </c>
       <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -699,17 +900,21 @@
       <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="12">
         <v>27.95</v>
       </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="E7" s="12">
+        <f t="shared" si="0"/>
+        <v>27.95</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -719,18 +924,22 @@
       <c r="C8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="12">
         <f>2.29+0.22+0.03406*2</f>
         <v>2.5781200000000002</v>
       </c>
-      <c r="E8" t="s">
-        <v>7</v>
+      <c r="E8" s="12">
+        <f t="shared" si="0"/>
+        <v>2.5781200000000002</v>
       </c>
       <c r="F8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -740,17 +949,21 @@
       <c r="C9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="12">
         <v>0.24</v>
       </c>
-      <c r="E9" t="s">
-        <v>7</v>
+      <c r="E9" s="12">
+        <f t="shared" si="0"/>
+        <v>2.16</v>
       </c>
       <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -760,17 +973,21 @@
       <c r="C10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="12">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="E10" s="12">
+        <f t="shared" si="0"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -780,14 +997,18 @@
       <c r="C11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="12">
         <v>1.993E-2</v>
       </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E11" s="12">
+        <f t="shared" si="0"/>
+        <v>0.99649999999999994</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -797,17 +1018,21 @@
       <c r="C12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="12">
         <v>46.37</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="12">
+        <f t="shared" si="0"/>
+        <v>46.37</v>
+      </c>
+      <c r="F12" t="s">
         <v>32</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -817,19 +1042,23 @@
       <c r="C13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="12">
         <v>0.74</v>
       </c>
-      <c r="E13" t="s">
-        <v>7</v>
+      <c r="E13" s="12">
+        <f t="shared" si="0"/>
+        <v>4.4399999999999995</v>
       </c>
       <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -837,16 +1066,20 @@
       <c r="C14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="12">
         <v>5.61</v>
       </c>
-      <c r="E14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E14" s="12">
+        <f t="shared" si="0"/>
+        <v>5.61</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -854,17 +1087,21 @@
       <c r="C15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="12">
         <v>24.95</v>
       </c>
-      <c r="E15" t="s">
-        <v>7</v>
+      <c r="E15" s="12">
+        <f t="shared" si="0"/>
+        <v>24.95</v>
       </c>
       <c r="F15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -874,17 +1111,21 @@
       <c r="C16" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="12">
         <v>0.88</v>
       </c>
-      <c r="E16" t="s">
-        <v>7</v>
+      <c r="E16" s="12">
+        <f t="shared" si="0"/>
+        <v>0.88</v>
       </c>
       <c r="F16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -894,17 +1135,21 @@
       <c r="C17" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="12">
         <v>39.15</v>
       </c>
-      <c r="E17" t="s">
-        <v>7</v>
+      <c r="E17" s="12">
+        <f t="shared" si="0"/>
+        <v>39.15</v>
       </c>
       <c r="F17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -914,14 +1159,18 @@
       <c r="C18" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="12">
         <v>0.78</v>
       </c>
-      <c r="E18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E18" s="12">
+        <f t="shared" si="0"/>
+        <v>0.78</v>
+      </c>
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -931,19 +1180,23 @@
       <c r="C19" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D19" s="12">
+        <v>6.66</v>
+      </c>
+      <c r="E19" s="12">
+        <f t="shared" si="0"/>
+        <v>6.66</v>
+      </c>
+      <c r="F19" t="s">
         <v>49</v>
       </c>
-      <c r="F19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20">
         <v>10</v>
@@ -951,19 +1204,20 @@
       <c r="C20" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="12"/>
+      <c r="F20" t="s">
         <v>34</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>52</v>
       </c>
       <c r="B21">
         <v>10</v>
@@ -971,57 +1225,409 @@
       <c r="C21" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="12"/>
+      <c r="F21" t="s">
         <v>34</v>
       </c>
-      <c r="F21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="2">
+        <v>57</v>
+      </c>
+      <c r="D22" s="12">
         <f>1.58+2.32+0.48</f>
         <v>4.38</v>
       </c>
-      <c r="F22" t="s">
+      <c r="E22" s="12">
+        <f t="shared" si="0"/>
+        <v>4.38</v>
+      </c>
+      <c r="G22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="D23" s="12">
+        <v>32.44</v>
+      </c>
+      <c r="E23" s="12">
+        <f t="shared" si="0"/>
+        <v>32.44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="2">
-        <v>32.44</v>
-      </c>
-      <c r="E23" t="s">
-        <v>7</v>
+      <c r="D24" s="12">
+        <v>42</v>
+      </c>
+      <c r="E24" s="12">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="F24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="12">
+        <v>1.31</v>
+      </c>
+      <c r="E25" s="12">
+        <f t="shared" si="0"/>
+        <v>1.31</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="12">
+        <v>1.37</v>
+      </c>
+      <c r="E26" s="12">
+        <f t="shared" si="0"/>
+        <v>1.37</v>
+      </c>
+      <c r="F26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="12">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="E27" s="12">
+        <f t="shared" si="0"/>
+        <v>18.260000000000002</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="12">
+        <v>1.98</v>
+      </c>
+      <c r="E28" s="12">
+        <f t="shared" si="0"/>
+        <v>1.98</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="12">
+        <v>30.43</v>
+      </c>
+      <c r="E29" s="12">
+        <f t="shared" si="0"/>
+        <v>30.43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="12">
+        <v>27.92</v>
+      </c>
+      <c r="E33" s="12">
+        <f t="shared" si="0"/>
+        <v>27.92</v>
+      </c>
+      <c r="F33" t="s">
+        <v>80</v>
+      </c>
+      <c r="G33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="13">
+        <v>65.44</v>
+      </c>
+      <c r="E34" s="12">
+        <f t="shared" si="0"/>
+        <v>130.88</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="13">
+        <v>15.5</v>
+      </c>
+      <c r="E35" s="12">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="F35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="12">
+        <v>15.53</v>
+      </c>
+      <c r="E36" s="12">
+        <f t="shared" si="0"/>
+        <v>15.53</v>
+      </c>
+      <c r="F36" t="s">
+        <v>80</v>
+      </c>
+      <c r="G36" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" t="s">
+        <v>89</v>
+      </c>
+      <c r="G37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="12">
+        <v>156.35</v>
+      </c>
+      <c r="E38" s="12">
+        <f t="shared" si="0"/>
+        <v>156.35</v>
+      </c>
+      <c r="F38" t="s">
+        <v>92</v>
+      </c>
+      <c r="G38" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="12">
+        <v>114</v>
+      </c>
+      <c r="E39" s="12">
+        <f>D39*B39</f>
+        <v>114</v>
+      </c>
+      <c r="F39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" s="12">
+        <v>33.380000000000003</v>
+      </c>
+      <c r="E40" s="12">
+        <f>D40*B40</f>
+        <v>33.380000000000003</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E49" s="14">
+        <f>SUM(E2:E46)</f>
+        <v>810.43462</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F5"/>
+  <autoFilter ref="A1:G5"/>
   <hyperlinks>
     <hyperlink ref="C12" r:id="rId1"/>
+    <hyperlink ref="C27" r:id="rId2" display="http://www.digikey.com/product-detail/en/S41/360-2091-ND/1007148"/>
+    <hyperlink ref="C29" r:id="rId3" display="http://www.digikey.com/product-detail/en/MPI002%2FTERM%2FD1/708-1451-ND/1980808"/>
+    <hyperlink ref="C33" r:id="rId4" location="47065T109" tooltip="Close" display="https://www1.mcmaster.com/ - 47065T109"/>
+    <hyperlink ref="C34" r:id="rId5" location="60585K76" display="https://www1.mcmaster.com/ - 60585K76"/>
+    <hyperlink ref="C35" r:id="rId6" location="60585K32" display="https://www1.mcmaster.com/ - 60585K32"/>
+    <hyperlink ref="C36" r:id="rId7" location="8982K61" tooltip="Close" display="https://www1.mcmaster.com/ - 8982K61"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/Automatic_Exfoliation/Bill_Of_Materials.xlsx
+++ b/Automatic_Exfoliation/Bill_Of_Materials.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hawk\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caoyuan9642\Documents\GitHub\automatic_exfoliation\Automatic_Exfoliation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -745,21 +745,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="42.28515625" customWidth="1"/>
-    <col min="4" max="5" width="12.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
-    <col min="7" max="7" width="87.28515625" customWidth="1"/>
+    <col min="1" max="1" width="33.5546875" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" customWidth="1"/>
+    <col min="4" max="5" width="12.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.109375" customWidth="1"/>
+    <col min="7" max="7" width="87.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -782,7 +782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -803,7 +803,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -824,7 +824,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -845,7 +845,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -866,7 +866,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -890,7 +890,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -914,7 +914,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -939,7 +939,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -963,7 +963,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -987,7 +987,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>62</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>69</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>66</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>72</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>67</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>75</v>
       </c>
@@ -1414,22 +1414,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>77</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>78</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>81</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>83</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>85</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>88</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>90</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>99</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>102</v>
       </c>
@@ -1598,16 +1598,16 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>98</v>
       </c>
